--- a/Real Estate/American Tower Corporation.xlsx
+++ b/Real Estate/American Tower Corporation.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DEDDA-FDB9-024D-A713-B516F96A5F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD4541A-6069-CF4E-9D85-1D3E691010CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,77 +936,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1070,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AMT</a:t>
+              <a:t>American Tower Corporation</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1124,9 +1109,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0649006622516561E-2"/>
+          <c:x val="9.6543046357615889E-2"/>
           <c:y val="0.12074945634529211"/>
-          <c:w val="0.87431788079470207"/>
+          <c:w val="0.85842384105960268"/>
           <c:h val="0.71142522049746781"/>
         </c:manualLayout>
       </c:layout>
@@ -1419,11 +1404,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1463,7 +1448,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2302,6 +2287,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2424,11 +2461,9 @@
     <v>Powered by Refinitiv</v>
     <v>282.47000000000003</v>
     <v>178.17</v>
-    <v>0.56910000000000005</v>
-    <v>-0.3</v>
-    <v>-1.57E-3</v>
-    <v>0.19</v>
-    <v>9.9620000000000004E-4</v>
+    <v>0.57389999999999997</v>
+    <v>-0.46</v>
+    <v>-2.3470000000000001E-3</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property, Latin America property, Data Centers and Services. Its primary business is leasing space on multitenant communications sites to wireless service providers, radio and television broadcast companies, wireless data providers, government agencies and municipalities and tenants in a number of other industries. Its Data Centers segment relates to data center facilities and related assets that the Company owns and operates in the United States. Its Services segment offers tower-related services in the United States, including AZP, structural analysis and construction management, which primarily support its site leasing business, including the addition of new tenants and equipment on its communications sites.</v>
     <v>6391</v>
@@ -2436,25 +2471,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116-5749 US</v>
-    <v>192.88</v>
+    <v>197.11</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45065.999317626563</v>
+    <v>45114.99115055547</v>
     <v>0</v>
-    <v>189.58</v>
-    <v>88888430000</v>
+    <v>191.88499999999999</v>
+    <v>91134760000</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>191.42</v>
-    <v>63.511299999999999</v>
-    <v>191.03</v>
-    <v>190.73</v>
-    <v>190.92</v>
+    <v>194.89</v>
+    <v>65.116299999999995</v>
+    <v>196.01</v>
+    <v>195.55</v>
     <v>466043200</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>1250608</v>
-    <v>1706028</v>
+    <v>1</v>
+    <v>2380887</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2486,8 +2520,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2508,7 +2540,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2525,7 +2556,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2536,16 +2567,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2611,19 +2639,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2668,9 +2690,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2678,9 +2697,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3042,10 +3058,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK103" sqref="AK103"/>
+      <selection pane="bottomRight" activeCell="AB101" sqref="AB101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,19 +3153,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3158,91 +3174,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3329,37 +3345,37 @@
       <c r="AA3" s="1">
         <v>10711100000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>11018000000</v>
       </c>
-      <c r="AC3" s="28">
-        <v>11407000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>11838000000</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>12687000000</v>
-      </c>
-      <c r="AF3" s="28">
+      <c r="AC3" s="24">
+        <v>11358000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>11795000000</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>12770000000</v>
+      </c>
+      <c r="AF3" s="24">
         <v>13583000000</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3379,87 +3395,87 @@
         <v>0.54253986603651705</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4" si="1">(G3/F3)-1</f>
         <v>-0.30486135051327334</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4" si="2">(H3/G3)-1</f>
         <v>-9.2940311001750375E-2</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4" si="3">(I3/H3)-1</f>
         <v>-1.1863345004642367E-2</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4" si="4">(J3/I3)-1</f>
         <v>0.33697393371635576</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4" si="5">(K3/J3)-1</f>
         <v>0.39437396405111835</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4" si="6">(L3/K3)-1</f>
         <v>0.10567070370468779</v>
       </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4" si="7">(M3/L3)-1</f>
         <v>9.3993247260389712E-2</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4" si="8">(N3/M3)-1</f>
         <v>8.1964023937185049E-2</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4" si="9">(O3/N3)-1</f>
         <v>0.1515102829627275</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4" si="10">(P3/O3)-1</f>
         <v>0.23079077334555631</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4" si="11">(Q3/P3)-1</f>
         <v>0.17696842112155675</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="12">(R3/Q3)-1</f>
         <v>0.16879476766018997</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4" si="13">(S3/R3)-1</f>
         <v>0.21974161415145499</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4" si="14">(T3/S3)-1</f>
         <v>0.16377076561054893</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4" si="15">(U3/T3)-1</f>
         <v>0.21254293184807516</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" si="0"/>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="16">(V3/U3)-1</f>
         <v>0.15179439954038143</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" si="0"/>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4" si="17">(W3/V3)-1</f>
         <v>0.11647833851048195</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" si="0"/>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4" si="18">(X3/W3)-1</f>
         <v>1.8843832744183553E-2</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4" si="19">(Y3/X3)-1</f>
         <v>6.0841919185256499E-2</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4" si="20">(Z3/Y3)-1</f>
         <v>0.16357644718025255</v>
       </c>
-      <c r="AA4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4" si="21">(AA3/Z3)-1</f>
         <v>0.14472742040633113</v>
       </c>
       <c r="AB4" s="16">
@@ -3468,19 +3484,19 @@
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>3.5305863133054949E-2</v>
+        <v>3.085859502632049E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>3.7783816954501726E-2</v>
+        <v>3.8475083641486219E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>7.1718195641155669E-2</v>
+        <v>8.2662144976685115E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0623472846220503E-2</v>
+        <v>6.3664839467501899E-2</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -3495,7 +3511,7 @@
         <v>3.40156108732372E-2</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>-7.6795126044769235E-2</v>
       </c>
     </row>
@@ -3665,16 +3681,16 @@
         <v>10603700000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3772,7 +3788,7 @@
         <v>0.16489999999999999</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.17015992755179207</v>
       </c>
     </row>
@@ -3781,10 +3797,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>1607000</v>
@@ -3861,123 +3877,123 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AA9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AA9" si="22">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6.2267272677957695E-3</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1.9743633334466697E-2</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7.608947699285217E-3</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7.4782476345095251E-3</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4057,10 +4073,10 @@
         <v>778700000</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="17">
         <f>AA9</f>
@@ -4084,82 +4100,82 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4245,124 +4261,124 @@
         <v>972300000</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>8.7744004086708446E-2</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AA13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AA13" si="23">C12/C3</f>
         <v>0.17259329367225526</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3.5399738841681488E-2</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>2.0343408928632144E-2</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>2.3345274296833602E-2</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3.0883285558458689E-2</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3.7568657501146623E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3.8870178020547361E-2</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4.0196404265092835E-2</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.12093958865479719</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.12802675282199433</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.1131933148583248</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.11698414373991511</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.11573311305144976</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.11819939333718568</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.11380582483761943</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.12362234028786161</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.10891140786644449</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>0.10433476488394883</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.3920874823788719E-2</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.5589669712930869E-2</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.8547062539481992E-2</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.6355025526694199E-2</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.6835167568239761E-2</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>8.6738129081212798E-2</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>9.0774990430487992E-2</v>
       </c>
       <c r="AG13" s="17">
@@ -4548,16 +4564,16 @@
         <v>8251400000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4642,59 +4658,59 @@
       <c r="AA16" s="1">
         <v>8358800000</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="25">
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>1.4103150084867061E-2</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="26">
         <f>AI101/AA3</f>
-        <v>8.2987209530300348</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>8.5084407763908469</v>
+      </c>
+      <c r="AI16" s="26">
         <f>AI101/AA28</f>
-        <v>50.338900215199907</v>
-      </c>
-      <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
-        <v>48.770125096016677</v>
+        <v>51.611031826933967</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f>AI101/AA107</f>
+        <v>50.002611653681555</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1">
         <v>255073000</v>
@@ -4742,7 +4758,7 @@
         <v>1136500000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4780,16 +4796,16 @@
         <v>530717000</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="1">
         <v>644276000</v>
@@ -4825,10 +4841,19 @@
         <v>3355100000</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4910,14 +4935,41 @@
       <c r="AA19" s="10">
         <v>6281400000</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AB19" s="61">
+        <v>6915000000</v>
+      </c>
+      <c r="AC19" s="61">
+        <v>7126000000</v>
+      </c>
+      <c r="AD19" s="61">
+        <v>7470000000</v>
+      </c>
+      <c r="AE19" s="61">
+        <v>8112000000</v>
+      </c>
+      <c r="AF19" s="61">
+        <v>8766000000</v>
+      </c>
+      <c r="AG19" s="28">
         <f>AA40-AA56-AA61</f>
         <v>-45022600000</v>
       </c>
+      <c r="AH19" s="57">
+        <f>AI101/AB3</f>
+        <v>8.2714430931203484</v>
+      </c>
+      <c r="AI19" s="57">
+        <f>AI101/AB28</f>
+        <v>47.220082901554406</v>
+      </c>
+      <c r="AJ19" s="58">
+        <f>AI101/AB106</f>
+        <v>18.064372646184342</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4933,95 +4985,115 @@
         <v>-0.48065804444238047</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AA20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AF20" si="24">(F19/E19)-1</f>
         <v>-3.3978941720877205</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>7.1244674404512196</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>-1.0223828446385479</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>2.8215420896134522</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>2.9070737695021664</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1.0842314889526001</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>6.5598940400842132E-2</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.14066186178386686</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>-7.9781466683292002E-2</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.18039274599646804</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>3.9869335685756901E-2</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1.1502539009066517</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>4.3964524810924832E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.3218599763309562</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.10198133147966404</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.23144727986889424</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.113369522883777</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>8.7653561009555014E-2</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.102465672523254</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>3.5266282755235245E-3</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.34185943060498225</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>4.1173545499751274E-2</v>
       </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="24"/>
+        <v>0.100869232973541</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="24"/>
+        <v>3.0513376717281382E-2</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="24"/>
+        <v>4.8273926466460892E-2</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="24"/>
+        <v>8.594377510040152E-2</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="24"/>
+        <v>8.0621301775148035E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5103,8 +5175,34 @@
       <c r="AA21" s="2">
         <v>0.58640000000000003</v>
       </c>
+      <c r="AB21" s="62">
+        <f>AB19/AB3</f>
+        <v>0.62760936649119625</v>
+      </c>
+      <c r="AC21" s="62">
+        <f t="shared" ref="AC21:AF21" si="25">AC19/AC3</f>
+        <v>0.62739918999823918</v>
+      </c>
+      <c r="AD21" s="62">
+        <f t="shared" si="25"/>
+        <v>0.63331920305214073</v>
+      </c>
+      <c r="AE21" s="62">
+        <f t="shared" si="25"/>
+        <v>0.63523884103367267</v>
+      </c>
+      <c r="AF21" s="62">
+        <f t="shared" si="25"/>
+        <v>0.64536553044246481</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5186,8 +5284,16 @@
       <c r="AA22" s="10">
         <v>2352300000</v>
       </c>
+      <c r="AI22" s="59">
+        <f>(-1*AA98)/AI101</f>
+        <v>2.8858363153641927E-2</v>
+      </c>
+      <c r="AJ22" s="60">
+        <f>AA107/AI101</f>
+        <v>1.999895539309041E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5270,7 +5376,7 @@
         <v>0.21959999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5353,7 +5459,7 @@
         <v>-631600000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5436,7 +5542,7 @@
         <v>1720700000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5519,7 +5625,7 @@
         <v>0.16059999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5602,7 +5708,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5684,10 +5790,25 @@
       <c r="AA28" s="11">
         <v>1765800000</v>
       </c>
+      <c r="AB28" s="63">
+        <v>1930000000</v>
+      </c>
+      <c r="AC28" s="63">
+        <v>2334000000</v>
+      </c>
+      <c r="AD28" s="63">
+        <v>2544000000</v>
+      </c>
+      <c r="AE28" s="63">
+        <v>2954000000</v>
+      </c>
+      <c r="AF28" s="63">
+        <v>3545000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5703,95 +5824,115 @@
         <v>2.8367733159855697</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AF29" si="26">(F28/E28)-1</f>
         <v>1.3125860616149785</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1.536978942176523</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.73428270420946529</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.18400419225026943</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.30695068804097148</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-1.160172504225188</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>1.0490467180905254</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>5.1660274167199374</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.28985503072749574</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.51234209939374287</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>6.3083209987772726E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.60742517567887977</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.13486943791063</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.49621009444382969</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.16951667454631414</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.39609005742445347</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.29534464281046602</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-2.0179191218016035E-3</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.52685215140731145</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.10446021824345797</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>0.51880988997988875</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.31230283911671919</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="26"/>
+        <v>9.2989013478310012E-2</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="26"/>
+        <v>0.20932642487046627</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="26"/>
+        <v>8.9974293059125854E-2</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="26"/>
+        <v>0.16116352201257866</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="26"/>
+        <v>0.20006770480704139</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5873,8 +6014,28 @@
       <c r="AA30" s="2">
         <v>0.16489999999999999</v>
       </c>
+      <c r="AB30" s="64">
+        <f>AB28/AB3</f>
+        <v>0.17516790706117263</v>
+      </c>
+      <c r="AC30" s="64">
+        <f t="shared" ref="AC30:AF30" si="27">AC28/AC3</f>
+        <v>0.20549392498679345</v>
+      </c>
+      <c r="AD30" s="64">
+        <f t="shared" si="27"/>
+        <v>0.21568461212378126</v>
+      </c>
+      <c r="AE30" s="64">
+        <f t="shared" si="27"/>
+        <v>0.2313234142521535</v>
+      </c>
+      <c r="AF30" s="64">
+        <f t="shared" si="27"/>
+        <v>0.26098799970551423</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5956,8 +6117,23 @@
       <c r="AA31" s="12">
         <v>3.83</v>
       </c>
+      <c r="AB31" s="65">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AC31" s="65">
+        <v>5.01</v>
+      </c>
+      <c r="AD31" s="65">
+        <v>5.46</v>
+      </c>
+      <c r="AE31" s="65">
+        <v>6.34</v>
+      </c>
+      <c r="AF31" s="65">
+        <v>7.61</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6208,7 +6384,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6216,99 +6392,99 @@
         <v>0.13980000000000001</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="28">(D34-C34)/C34</f>
         <v>0.87688316245957942</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0.12665193089770216</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0.13555996799336159</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>2.0189366655183574E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>6.4690413089524904E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>7.803054330171362E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0.34846836887525856</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0.44199200026445407</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-2.3240726519140702E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-1.8123399651238385E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-2.7270967140504403E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-7.067242006349706E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-9.5948246847096554E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-2.2688939142168191E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-3.5312945325041885E-4</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>2.3550279847474359E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.731017831166299E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>1.4817441461886694E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.6023648735216633E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>2.611145086266007E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.7793028715911144E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>1.3108277967319088E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>3.731416889335222E-2</v>
       </c>
     </row>
@@ -6317,82 +6493,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6400,82 +6576,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6566,31 +6742,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>22986000</v>
@@ -6620,7 +6796,7 @@
         <v>6302000</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1">
         <v>4026000</v>
@@ -6629,19 +6805,19 @@
         <v>1000000</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6815,10 +6991,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>11262000</v>
@@ -6833,64 +7009,64 @@
         <v>9092000</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7147,31 +7323,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>2189767000</v>
@@ -7396,82 +7572,82 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7479,7 +7655,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>109418000</v>
@@ -7637,7 +7813,7 @@
         <v>2940500000</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7728,82 +7904,82 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8060,49 +8236,49 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1">
         <v>36814000</v>
@@ -8132,10 +8308,10 @@
         <v>239700000</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8143,25 +8319,25 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1">
         <v>32681000</v>
@@ -8419,7 +8595,7 @@
         <v>3451276000</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>4283467000</v>
@@ -8475,49 +8651,49 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1">
         <v>164032000</v>
@@ -8547,10 +8723,10 @@
         <v>576100000</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8561,58 +8737,58 @@
         <v>417628</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1">
         <v>777572000</v>
@@ -8807,82 +8983,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9471,82 +9647,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9554,82 +9730,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9753,16 +9929,16 @@
         <v>530717000</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q77" s="1">
         <v>644276000</v>
@@ -9875,7 +10051,7 @@
         <v>-22500000</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1">
         <v>-236700000</v>
@@ -9886,37 +10062,37 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1">
         <v>54807000</v>
@@ -9966,110 +10142,110 @@
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="29">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>3.4394014699680703E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>3.5189088424547335E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>2.6471603029211695E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.9413291906960908E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.8075007997329588E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>2.0270678320120115E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.9549283325463507E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.8974472683314904E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.5538050230327768E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.6281756929125587E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.8480934396043064E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.4695988285424059E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.502207299633153E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.2771323835885817E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.580603299381016E-2</v>
       </c>
     </row>
@@ -10161,37 +10337,37 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1">
         <v>-13550000</v>
@@ -10233,7 +10409,7 @@
         <v>-175500000</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1">
         <v>-78600000</v>
@@ -10244,10 +10420,10 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1">
         <v>-6210000</v>
@@ -10262,106 +10438,106 @@
         <v>11347000</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AH83" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI83" s="69"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1">
         <v>-27374000</v>
@@ -10403,15 +10579,15 @@
         <v>-69200000</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>-48200000</v>
       </c>
-      <c r="AH84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI84" s="65"/>
+      <c r="AH84" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI84" s="70"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10493,12 +10669,12 @@
         <v>278200000</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AH85" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI85" s="33">
         <f>AA17</f>
         <v>1136500000</v>
       </c>
@@ -10583,12 +10759,12 @@
         <v>-334700000</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AH86" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI86" s="33">
         <f>AA56</f>
         <v>5303100000</v>
       </c>
@@ -10675,10 +10851,10 @@
       <c r="AA87" s="10">
         <v>3696200000</v>
       </c>
-      <c r="AH87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI87" s="24">
+      <c r="AH87" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI87" s="33">
         <f>AA61</f>
         <v>41747900000</v>
       </c>
@@ -10765,126 +10941,126 @@
       <c r="AA88" s="1">
         <v>-1873600000</v>
       </c>
-      <c r="AH88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI88" s="34">
+      <c r="AH88" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI88" s="35">
         <f>AI85/(AI86+AI87)</f>
         <v>2.4154640709017874E-2</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AA89" si="30">(-1*B88)/B3</f>
+        <v>1.1773967418164024</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="30"/>
+        <v>1.2212682531097891</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="30"/>
+        <v>1.1401149251591554</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.74664717282649351</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.50093679106958178</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.22893508536059462</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="30"/>
+        <v>8.6147684941773967E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="30"/>
+        <v>5.9690657459032632E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="30"/>
+        <v>9.3817012529821567E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="30"/>
+        <v>9.6477491393935716E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.10598766711932082</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.15279785930879369</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.14515397473716934</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.17461234501985812</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.21404057732822815</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.19751595988817647</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.21554426464870216</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.23765672987243075</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.15272986614736281</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.11796477087866086</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.12059004486862047</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.12274028574884746</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.13077318839623761</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.12829695952247716</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.14713206296957326</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="30"/>
+        <v>0.17492134327940173</v>
+      </c>
+      <c r="AH89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AA89" si="7">(-1*B88)/B3</f>
-        <v>1.1773967418164024</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2212682531097891</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1401149251591554</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.74664717282649351</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.50093679106958178</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.22893508536059462</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6147684941773967E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9690657459032632E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.3817012529821567E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.6477491393935716E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10598766711932082</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15279785930879369</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14515397473716934</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17461234501985812</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21404057732822815</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19751595988817647</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21554426464870216</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23765672987243075</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15272986614736281</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11796477087866086</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12059004486862047</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12274028574884746</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13077318839623761</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12829695952247716</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14713206296957326</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17492134327940173</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="33">
         <f>AA27</f>
         <v>24000000</v>
       </c>
@@ -10971,10 +11147,10 @@
       <c r="AA90" s="1">
         <v>-549000000</v>
       </c>
-      <c r="AH90" s="23" t="s">
+      <c r="AH90" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="33">
         <f>AA25</f>
         <v>1720700000</v>
       </c>
@@ -10984,40 +11160,40 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-55356000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-6304000</v>
@@ -11044,7 +11220,7 @@
         <v>-750000</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1">
         <v>-1154300000</v>
@@ -11053,18 +11229,18 @@
         <v>-355900000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1">
         <v>-25000000</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AH91" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI91" s="35">
         <f>AI89/AI90</f>
         <v>1.3947811937002383E-2</v>
       </c>
@@ -11074,34 +11250,34 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>7668000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>2784000</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>22163000</v>
@@ -11151,10 +11327,10 @@
       <c r="AA92" s="1">
         <v>19600000</v>
       </c>
-      <c r="AH92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI92" s="36">
+      <c r="AH92" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI92" s="35">
         <f>AI88*(1-AI91)</f>
         <v>2.3817736323002631E-2</v>
       </c>
@@ -11200,10 +11376,10 @@
         <v>5988000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>25495000</v>
@@ -11241,10 +11417,10 @@
       <c r="AA93" s="1">
         <v>47800000</v>
       </c>
-      <c r="AH93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI93" s="65"/>
+      <c r="AH93" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI93" s="70"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11328,11 +11504,12 @@
       <c r="AA94" s="10">
         <v>-2355200000</v>
       </c>
-      <c r="AH94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI94" s="37">
-        <v>4.095E-2</v>
+      <c r="AH94" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11340,37 +11517,37 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1">
         <v>-327453000</v>
@@ -11417,12 +11594,12 @@
       <c r="AA95" s="1">
         <v>-9625500000</v>
       </c>
-      <c r="AH95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI95" s="39" cm="1">
+      <c r="AH95" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI95" s="38" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.56910000000000005</v>
+        <v>0.57389999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11430,7 +11607,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>1007059000</v>
@@ -11463,43 +11640,43 @@
         <v>124087000</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1">
         <v>2440327000</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1">
         <v>2361800000</v>
@@ -11507,10 +11684,10 @@
       <c r="AA96" s="1">
         <v>2291700000</v>
       </c>
-      <c r="AH96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI96" s="37">
+      <c r="AH96" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11519,28 +11696,28 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-303117000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-68927000</v>
@@ -11573,10 +11750,10 @@
         <v>-59111000</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1">
         <v>-766300000</v>
@@ -11591,17 +11768,17 @@
         <v>-56000000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1">
         <v>-18800000</v>
       </c>
-      <c r="AH97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI97" s="36">
+      <c r="AH97" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI97" s="35">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>6.5449754999999998E-2</v>
+        <v>6.5456128000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11609,10 +11786,10 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1">
         <v>-396000</v>
@@ -11621,34 +11798,34 @@
         <v>-667000</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1">
         <v>-137765000</v>
@@ -11683,13 +11860,13 @@
       <c r="Z98" s="1">
         <v>-2271000000</v>
       </c>
-      <c r="AA98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI98" s="65"/>
+      <c r="AA98" s="1">
+        <v>-2630000000</v>
+      </c>
+      <c r="AH98" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI98" s="70"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11773,10 +11950,10 @@
       <c r="AA99" s="1">
         <v>5929400000</v>
       </c>
-      <c r="AH99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI99" s="24">
+      <c r="AH99" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI99" s="33">
         <f>AI86+AI87</f>
         <v>47051000000</v>
       </c>
@@ -11863,12 +12040,12 @@
       <c r="AA100" s="10">
         <v>-1423200000</v>
       </c>
-      <c r="AH100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI100" s="34">
+      <c r="AH100" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI100" s="35">
         <f>AI99/AI103</f>
-        <v>0.34611738477938297</v>
+        <v>0.34049094494251797</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11876,37 +12053,37 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1">
         <v>-192000</v>
@@ -11953,12 +12130,12 @@
       <c r="AA101" s="1">
         <v>-120400000</v>
       </c>
-      <c r="AH101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI101" s="40" cm="1">
+      <c r="AH101" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI101" s="39" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>88888430000</v>
+        <v>91134760000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12043,12 +12220,12 @@
       <c r="AA102" s="10">
         <v>-202600000</v>
       </c>
-      <c r="AH102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI102" s="34">
+      <c r="AH102" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI102" s="35">
         <f>AI101/AI103</f>
-        <v>0.65388261522061697</v>
+        <v>0.65950905505748203</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12133,12 +12310,12 @@
       <c r="AA103" s="1">
         <v>2343300000</v>
       </c>
-      <c r="AH103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI103" s="41">
+      <c r="AH103" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI103" s="40">
         <f>AI99+AI101</f>
-        <v>135939430000</v>
+        <v>138185760000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12223,406 +12400,498 @@
       <c r="AA104" s="11">
         <v>2140700000</v>
       </c>
-      <c r="AH104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI104" s="65"/>
+      <c r="AH104" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI104" s="70"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>9.0941850463543297</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.82577342491622385</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>1.910455252977473</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-5.5648465590768414E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.86100411741267102</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="8">(H106/G106)-1</f>
-        <v>-2.2578701491744972</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.84134503787798853</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.76809974845145801</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59978221909666307</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.0466736893282551E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.5835095058870707E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.1172009196374304</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13930396172093595</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.6545150397515722E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31639050778704281</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.3286740718597496E-2</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.32666106356094526</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25350612186849508</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.38974103674691385</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.9923828570495488E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3360508953817154</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.6030827836760584E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.2013906493318256E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20826753693371236</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.47066682156133832</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI105" s="26">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Z105" si="31">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <v>-8654152.2497239485</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="31"/>
+        <v>-98135480.676468879</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="31"/>
+        <v>-190002330.73749056</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="31"/>
+        <v>-456675428.08159471</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="31"/>
+        <v>-313173260.76596737</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="31"/>
+        <v>84270024.524902642</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="31"/>
+        <v>323231797.34991574</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="31"/>
+        <v>394358084.32614636</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="31"/>
+        <v>535126295.51926541</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="31"/>
+        <v>661353328.47097111</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="31"/>
+        <v>785473664.03207994</v>
+      </c>
+      <c r="M105" s="1" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N105" s="1" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O105" s="1" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P105" s="1" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="31"/>
+        <v>1173919369.9657116</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="31"/>
+        <v>1254486102.2258384</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="31"/>
+        <v>1652846691.5790086</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="31"/>
+        <v>2011581122.3339338</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="31"/>
+        <v>2566504299.9941883</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="31"/>
+        <v>2530626692.6250944</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="31"/>
+        <v>3062029418.2600107</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="31"/>
+        <v>3187602702.3885632</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="31"/>
+        <v>3274225693.0319061</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="31"/>
+        <v>4179015453.0133085</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <v>2512790561.9805889</v>
+      </c>
+      <c r="AB105" s="29">
+        <f>AA105*(1+$AI$106)</f>
+        <v>2635572133.7917175</v>
+      </c>
+      <c r="AC105" s="29">
+        <f t="shared" ref="AC105:AF105" si="32">AB105*(1+$AI$106)</f>
+        <v>2764353136.9141965</v>
+      </c>
+      <c r="AD105" s="29">
+        <f t="shared" si="32"/>
+        <v>2899426719.3793521</v>
+      </c>
+      <c r="AE105" s="29">
+        <f t="shared" si="32"/>
+        <v>3041100353.2042036</v>
+      </c>
+      <c r="AF105" s="29">
+        <f t="shared" si="32"/>
+        <v>3189696534.2991705</v>
+      </c>
+      <c r="AG105" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH105" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI105" s="42">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>5.1040189572431241E-2</v>
+        <v>5.1278632672012492E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-10701805</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-108026000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-197231000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-574032000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-542088000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-75348000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>94778000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>174519000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>308567000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>493640000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>538298000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>529774000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>591864000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>674313000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>642927000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>846343000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>874515000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>1160185000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1454299000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>2021099000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>2122000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>2835100000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>2761300000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>2849700000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>3443200000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1822600000</v>
-      </c>
-      <c r="AB106" s="42">
-        <f>AA106*(1+$AI$106)</f>
-        <v>1911573451.5356636</v>
-      </c>
-      <c r="AC106" s="42">
-        <f t="shared" ref="AC106:AF106" si="9">AB106*(1+$AI$106)</f>
-        <v>2004890299.9100022</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" si="9"/>
-        <v>2102762575.7430785</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>2205412660.3057275</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>2313073790.8049321</v>
-      </c>
-      <c r="AG106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AA106" si="33">(C107/B107)-1</f>
+        <v>9.0941850463543297</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.82577342491622385</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="33"/>
+        <v>1.910455252977473</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="33"/>
+        <v>-5.5648465590768414E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="33"/>
+        <v>-0.86100411741267102</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="33"/>
+        <v>-2.2578701491744972</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.84134503787798853</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.76809974845145801</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.59978221909666307</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="33"/>
+        <v>9.0466736893282551E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="33"/>
+        <v>-1.5835095058870707E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.1172009196374304</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.13930396172093595</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="33"/>
+        <v>-4.6545150397515722E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.31639050778704281</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="33"/>
+        <v>3.3286740718597496E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.32666106356094526</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.25350612186849508</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.38974103674691385</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="33"/>
+        <v>4.9923828570495488E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.3360508953817154</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="33"/>
+        <v>-2.6030827836760584E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="33"/>
+        <v>3.2013906493318256E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="33"/>
+        <v>0.20826753693371236</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="33"/>
+        <v>-0.47066682156133832</v>
+      </c>
+      <c r="AB106" s="56">
+        <v>5045000000</v>
+      </c>
+      <c r="AC106" s="56">
+        <v>5236000000</v>
+      </c>
+      <c r="AD106" s="56">
+        <v>5518000000</v>
+      </c>
+      <c r="AE106" s="56">
+        <v>6138000000</v>
+      </c>
+      <c r="AF106" s="56">
+        <v>6672000000</v>
+      </c>
+      <c r="AG106" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH106" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI106" s="44">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>4.8816773584803873E-2</v>
+        <v>4.8862636492216047E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="46">
+      <c r="A107" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-10701805</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-108026000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-197231000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-574032000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-542088000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-75348000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>94778000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>174519000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>308567000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>493640000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>538298000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>529774000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>591864000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>674313000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>642927000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>846343000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>874515000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1160185000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1454299000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2021099000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2122000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>2835100000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>2761300000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>2849700000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>3443200000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1822600000</v>
+      </c>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="66">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>91047748672.503082</v>
-      </c>
-      <c r="AG107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI107" s="49">
-        <v>2.5000000000000001E-2</v>
+        <v>217574728133.47675</v>
+      </c>
+      <c r="AG107" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH107" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI107" s="46">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="46">
-        <f t="shared" ref="AB108:AD108" si="10">AB107+AB106</f>
-        <v>1911573451.5356636</v>
-      </c>
-      <c r="AC108" s="46">
-        <f t="shared" si="10"/>
-        <v>2004890299.9100022</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>2102762575.7430785</v>
-      </c>
-      <c r="AE108" s="46">
+      <c r="AB108" s="66">
+        <f t="shared" ref="AB108:AD108" si="34">AB107+AB106</f>
+        <v>5045000000</v>
+      </c>
+      <c r="AC108" s="66">
+        <f t="shared" si="34"/>
+        <v>5236000000</v>
+      </c>
+      <c r="AD108" s="66">
+        <f t="shared" si="34"/>
+        <v>5518000000</v>
+      </c>
+      <c r="AE108" s="66">
         <f>AE107+AE106</f>
-        <v>2205412660.3057275</v>
-      </c>
-      <c r="AF108" s="46">
+        <v>6138000000</v>
+      </c>
+      <c r="AF108" s="66">
         <f>AF107+AF106</f>
-        <v>93360822463.308014</v>
-      </c>
-      <c r="AG108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI108" s="51">
+        <v>224246728133.47675</v>
+      </c>
+      <c r="AG108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH108" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI108" s="44">
         <f>AI105</f>
-        <v>5.1040189572431241E-2</v>
+        <v>5.1278632672012492E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC109" s="61"/>
+      <c r="AB109" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC109" s="67"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC110" s="40">
+      <c r="AB110" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC110" s="39">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>80041311189.160538</v>
+        <v>193948356305.60294</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC111" s="40">
+      <c r="AB111" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC111" s="39">
         <f>AA40</f>
         <v>2028400000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC112" s="40">
+      <c r="AB112" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC112" s="39">
         <f>AI99</f>
         <v>47051000000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC113" s="40">
+      <c r="AB113" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC113" s="39">
         <f>AC110+AC111-AC112</f>
-        <v>35018711189.160538</v>
+        <v>148925756305.60294</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC114" s="53">
+      <c r="AB114" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC114" s="48">
         <f>AA34*(1+(5*AG16))</f>
         <v>495381163.50886112</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC115" s="55">
+      <c r="AB115" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC115" s="50">
         <f>AC113/AC114</f>
-        <v>70.690437523133923</v>
+        <v>300.62862150578928</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC116" s="56" cm="1">
+      <c r="AB116" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC116" s="51" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>190.73</v>
+        <v>195.55</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC117" s="58">
+      <c r="AB117" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC117" s="52">
         <f>AC115/AC116-1</f>
-        <v>-0.62936906871947818</v>
+        <v>0.53734912557294434</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC118" s="59" t="str">
+      <c r="AB118" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC118" s="53" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -12688,9 +12957,10 @@
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://www.sec.gov/Archives/edgar/data/1053507/000105350722000017/0001053507-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://www.sec.gov/Archives/edgar/data/1053507/000105350723000023/0001053507-23-000023-index.htm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/1053507/000105350723000023/0001053507-23-000023-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:UPS/explorer/revenue_proj" xr:uid="{D33EE87E-D381-764A-8852-2DDE82700EB6}"/>
+    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:AMT/explorer/revenue_proj" xr:uid="{D33EE87E-D381-764A-8852-2DDE82700EB6}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{F3D5580B-9607-E749-849E-8107DF52C684}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Real Estate/American Tower Corporation.xlsx
+++ b/Real Estate/American Tower Corporation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD4541A-6069-CF4E-9D85-1D3E691010CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF19782-88B1-574C-A35B-BBB43798DA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,12 +928,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,6 +1017,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2304,7 +2302,9 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2315,7 +2315,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.0119999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2334,6 +2334,8 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2461,9 +2463,11 @@
     <v>Powered by Refinitiv</v>
     <v>282.47000000000003</v>
     <v>178.17</v>
-    <v>0.57389999999999997</v>
-    <v>-0.46</v>
-    <v>-2.3470000000000001E-3</v>
+    <v>0.57279999999999998</v>
+    <v>-0.16</v>
+    <v>-8.5519999999999997E-4</v>
+    <v>0.81</v>
+    <v>4.333E-3</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property, Latin America property, Data Centers and Services. Its primary business is leasing space on multitenant communications sites to wireless service providers, radio and television broadcast companies, wireless data providers, government agencies and municipalities and tenants in a number of other industries. Its Data Centers segment relates to data center facilities and related assets that the Company owns and operates in the United States. Its Services segment offers tower-related services in the United States, including AZP, structural analysis and construction management, which primarily support its site leasing business, including the addition of new tenants and equipment on its communications sites.</v>
     <v>6391</v>
@@ -2471,24 +2475,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116-5749 US</v>
-    <v>197.11</v>
+    <v>189.32499999999999</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45114.99115055547</v>
+    <v>45148.967877928124</v>
     <v>0</v>
-    <v>191.88499999999999</v>
-    <v>91134760000</v>
+    <v>186.5</v>
+    <v>87143109170</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>194.89</v>
-    <v>65.116299999999995</v>
-    <v>196.01</v>
-    <v>195.55</v>
-    <v>466043200</v>
+    <v>187.17</v>
+    <v>90.379499999999993</v>
+    <v>187.1</v>
+    <v>186.94</v>
+    <v>187.75</v>
+    <v>466155500</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>1</v>
-    <v>2380887</v>
+    <v>1618379</v>
+    <v>2411615</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2520,6 +2525,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2540,6 +2547,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2556,7 +2564,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2567,13 +2575,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2639,13 +2650,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2690,6 +2707,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2697,6 +2717,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3058,10 +3081,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB101" sqref="AB101"/>
+      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4662,17 +4685,17 @@
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>1.4103150084867061E-2</v>
       </c>
-      <c r="AH16" s="26">
+      <c r="AH16" s="55">
         <f>AI101/AA3</f>
-        <v>8.5084407763908469</v>
-      </c>
-      <c r="AI16" s="26">
+        <v>8.135775893232255</v>
+      </c>
+      <c r="AI16" s="55">
         <f>AI101/AA28</f>
-        <v>51.611031826933967</v>
-      </c>
-      <c r="AJ16" s="27">
+        <v>49.350497887642994</v>
+      </c>
+      <c r="AJ16" s="56">
         <f>AI101/AA107</f>
-        <v>50.002611653681555</v>
+        <v>47.812525606276751</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4935,36 +4958,36 @@
       <c r="AA19" s="10">
         <v>6281400000</v>
       </c>
-      <c r="AB19" s="61">
+      <c r="AB19" s="59">
         <v>6915000000</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="59">
         <v>7126000000</v>
       </c>
-      <c r="AD19" s="61">
+      <c r="AD19" s="59">
         <v>7470000000</v>
       </c>
-      <c r="AE19" s="61">
+      <c r="AE19" s="59">
         <v>8112000000</v>
       </c>
-      <c r="AF19" s="61">
+      <c r="AF19" s="59">
         <v>8766000000</v>
       </c>
-      <c r="AG19" s="28">
+      <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>-45022600000</v>
       </c>
-      <c r="AH19" s="57">
+      <c r="AH19" s="55">
         <f>AI101/AB3</f>
-        <v>8.2714430931203484</v>
-      </c>
-      <c r="AI19" s="57">
+        <v>7.9091585741513883</v>
+      </c>
+      <c r="AI19" s="55">
         <f>AI101/AB28</f>
-        <v>47.220082901554406</v>
-      </c>
-      <c r="AJ19" s="58">
+        <v>45.151870036269429</v>
+      </c>
+      <c r="AJ19" s="56">
         <f>AI101/AB106</f>
-        <v>18.064372646184342</v>
+        <v>17.273163363726461</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5175,23 +5198,23 @@
       <c r="AA21" s="2">
         <v>0.58640000000000003</v>
       </c>
-      <c r="AB21" s="62">
+      <c r="AB21" s="60">
         <f>AB19/AB3</f>
         <v>0.62760936649119625</v>
       </c>
-      <c r="AC21" s="62">
+      <c r="AC21" s="60">
         <f t="shared" ref="AC21:AF21" si="25">AC19/AC3</f>
         <v>0.62739918999823918</v>
       </c>
-      <c r="AD21" s="62">
+      <c r="AD21" s="60">
         <f t="shared" si="25"/>
         <v>0.63331920305214073</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="60">
         <f t="shared" si="25"/>
         <v>0.63523884103367267</v>
       </c>
-      <c r="AF21" s="62">
+      <c r="AF21" s="60">
         <f t="shared" si="25"/>
         <v>0.64536553044246481</v>
       </c>
@@ -5284,13 +5307,13 @@
       <c r="AA22" s="10">
         <v>2352300000</v>
       </c>
-      <c r="AI22" s="59">
+      <c r="AI22" s="57">
         <f>(-1*AA98)/AI101</f>
-        <v>2.8858363153641927E-2</v>
-      </c>
-      <c r="AJ22" s="60">
+        <v>3.0180240584133385E-2</v>
+      </c>
+      <c r="AJ22" s="58">
         <f>AA107/AI101</f>
-        <v>1.999895539309041E-2</v>
+        <v>2.0915021478570914E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5790,19 +5813,19 @@
       <c r="AA28" s="11">
         <v>1765800000</v>
       </c>
-      <c r="AB28" s="63">
+      <c r="AB28" s="61">
         <v>1930000000</v>
       </c>
-      <c r="AC28" s="63">
+      <c r="AC28" s="61">
         <v>2334000000</v>
       </c>
-      <c r="AD28" s="63">
+      <c r="AD28" s="61">
         <v>2544000000</v>
       </c>
-      <c r="AE28" s="63">
+      <c r="AE28" s="61">
         <v>2954000000</v>
       </c>
-      <c r="AF28" s="63">
+      <c r="AF28" s="61">
         <v>3545000000</v>
       </c>
     </row>
@@ -6014,23 +6037,23 @@
       <c r="AA30" s="2">
         <v>0.16489999999999999</v>
       </c>
-      <c r="AB30" s="64">
+      <c r="AB30" s="62">
         <f>AB28/AB3</f>
         <v>0.17516790706117263</v>
       </c>
-      <c r="AC30" s="64">
+      <c r="AC30" s="62">
         <f t="shared" ref="AC30:AF30" si="27">AC28/AC3</f>
         <v>0.20549392498679345</v>
       </c>
-      <c r="AD30" s="64">
+      <c r="AD30" s="62">
         <f t="shared" si="27"/>
         <v>0.21568461212378126</v>
       </c>
-      <c r="AE30" s="64">
+      <c r="AE30" s="62">
         <f t="shared" si="27"/>
         <v>0.2313234142521535</v>
       </c>
-      <c r="AF30" s="64">
+      <c r="AF30" s="62">
         <f t="shared" si="27"/>
         <v>0.26098799970551423</v>
       </c>
@@ -6117,19 +6140,19 @@
       <c r="AA31" s="12">
         <v>3.83</v>
       </c>
-      <c r="AB31" s="65">
+      <c r="AB31" s="63">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AC31" s="65">
+      <c r="AC31" s="63">
         <v>5.01</v>
       </c>
-      <c r="AD31" s="65">
+      <c r="AD31" s="63">
         <v>5.46</v>
       </c>
-      <c r="AE31" s="65">
+      <c r="AE31" s="63">
         <v>6.34</v>
       </c>
-      <c r="AF31" s="65">
+      <c r="AF31" s="63">
         <v>7.61</v>
       </c>
     </row>
@@ -10497,10 +10520,10 @@
       <c r="AA83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH83" s="68" t="s">
+      <c r="AH83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AI83" s="69"/>
+      <c r="AI83" s="67"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10584,10 +10607,10 @@
       <c r="AA84" s="1">
         <v>-48200000</v>
       </c>
-      <c r="AH84" s="70" t="s">
+      <c r="AH84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AI84" s="70"/>
+      <c r="AI84" s="68"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10671,10 +10694,10 @@
       <c r="AA85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH85" s="32" t="s">
+      <c r="AH85" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AI85" s="33">
+      <c r="AI85" s="31">
         <f>AA17</f>
         <v>1136500000</v>
       </c>
@@ -10761,10 +10784,10 @@
       <c r="AA86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH86" s="32" t="s">
+      <c r="AH86" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AI86" s="33">
+      <c r="AI86" s="31">
         <f>AA56</f>
         <v>5303100000</v>
       </c>
@@ -10851,10 +10874,10 @@
       <c r="AA87" s="10">
         <v>3696200000</v>
       </c>
-      <c r="AH87" s="32" t="s">
+      <c r="AH87" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AI87" s="33">
+      <c r="AI87" s="31">
         <f>AA61</f>
         <v>41747900000</v>
       </c>
@@ -10941,10 +10964,10 @@
       <c r="AA88" s="1">
         <v>-1873600000</v>
       </c>
-      <c r="AH88" s="34" t="s">
+      <c r="AH88" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AI88" s="35">
+      <c r="AI88" s="33">
         <f>AI85/(AI86+AI87)</f>
         <v>2.4154640709017874E-2</v>
       </c>
@@ -11057,10 +11080,10 @@
         <f t="shared" si="30"/>
         <v>0.17492134327940173</v>
       </c>
-      <c r="AH89" s="32" t="s">
+      <c r="AH89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AI89" s="33">
+      <c r="AI89" s="31">
         <f>AA27</f>
         <v>24000000</v>
       </c>
@@ -11147,10 +11170,10 @@
       <c r="AA90" s="1">
         <v>-549000000</v>
       </c>
-      <c r="AH90" s="32" t="s">
+      <c r="AH90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="33">
+      <c r="AI90" s="31">
         <f>AA25</f>
         <v>1720700000</v>
       </c>
@@ -11237,10 +11260,10 @@
       <c r="AA91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH91" s="34" t="s">
+      <c r="AH91" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AI91" s="35">
+      <c r="AI91" s="33">
         <f>AI89/AI90</f>
         <v>1.3947811937002383E-2</v>
       </c>
@@ -11327,10 +11350,10 @@
       <c r="AA92" s="1">
         <v>19600000</v>
       </c>
-      <c r="AH92" s="34" t="s">
+      <c r="AH92" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AI92" s="35">
+      <c r="AI92" s="33">
         <f>AI88*(1-AI91)</f>
         <v>2.3817736323002631E-2</v>
       </c>
@@ -11417,10 +11440,10 @@
       <c r="AA93" s="1">
         <v>47800000</v>
       </c>
-      <c r="AH93" s="70" t="s">
+      <c r="AH93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AI93" s="70"/>
+      <c r="AI93" s="68"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11504,12 +11527,12 @@
       <c r="AA94" s="10">
         <v>-2355200000</v>
       </c>
-      <c r="AH94" s="32" t="s">
+      <c r="AH94" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AI94" s="55">
+      <c r="AI94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11594,12 +11617,12 @@
       <c r="AA95" s="1">
         <v>-9625500000</v>
       </c>
-      <c r="AH95" s="37" t="s">
+      <c r="AH95" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AI95" s="38" cm="1">
+      <c r="AI95" s="36" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.57389999999999997</v>
+        <v>0.57279999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11684,10 +11707,10 @@
       <c r="AA96" s="1">
         <v>2291700000</v>
       </c>
-      <c r="AH96" s="32" t="s">
+      <c r="AH96" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="AI96" s="36">
+      <c r="AI96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11773,12 +11796,12 @@
       <c r="AA97" s="1">
         <v>-18800000</v>
       </c>
-      <c r="AH97" s="34" t="s">
+      <c r="AH97" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="AI97" s="35">
+      <c r="AI97" s="33">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>6.5456128000000002E-2</v>
+        <v>6.5254463999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11863,10 +11886,10 @@
       <c r="AA98" s="1">
         <v>-2630000000</v>
       </c>
-      <c r="AH98" s="70" t="s">
+      <c r="AH98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AI98" s="70"/>
+      <c r="AI98" s="68"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11950,10 +11973,10 @@
       <c r="AA99" s="1">
         <v>5929400000</v>
       </c>
-      <c r="AH99" s="32" t="s">
+      <c r="AH99" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AI99" s="33">
+      <c r="AI99" s="31">
         <f>AI86+AI87</f>
         <v>47051000000</v>
       </c>
@@ -12040,12 +12063,12 @@
       <c r="AA100" s="10">
         <v>-1423200000</v>
       </c>
-      <c r="AH100" s="34" t="s">
+      <c r="AH100" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AI100" s="35">
+      <c r="AI100" s="33">
         <f>AI99/AI103</f>
-        <v>0.34049094494251797</v>
+        <v>0.35061896748682742</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12130,12 +12153,12 @@
       <c r="AA101" s="1">
         <v>-120400000</v>
       </c>
-      <c r="AH101" s="37" t="s">
+      <c r="AH101" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AI101" s="39" cm="1">
+      <c r="AI101" s="37" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>91134760000</v>
+        <v>87143109170</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12220,12 +12243,12 @@
       <c r="AA102" s="10">
         <v>-202600000</v>
       </c>
-      <c r="AH102" s="34" t="s">
+      <c r="AH102" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AI102" s="35">
+      <c r="AI102" s="33">
         <f>AI101/AI103</f>
-        <v>0.65950905505748203</v>
+        <v>0.64938103251317258</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12310,12 +12333,15 @@
       <c r="AA103" s="1">
         <v>2343300000</v>
       </c>
-      <c r="AH103" s="34" t="s">
+      <c r="AG103" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH103" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AI103" s="40">
+      <c r="AI103" s="38">
         <f>AI99+AI101</f>
-        <v>138185760000</v>
+        <v>134194109170</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12400,10 +12426,34 @@
       <c r="AA104" s="11">
         <v>2140700000</v>
       </c>
-      <c r="AH104" s="70" t="s">
+      <c r="AB104" s="69">
+        <f>(AB106/AA105)-1</f>
+        <v>1.0077280121680801</v>
+      </c>
+      <c r="AC104" s="69">
+        <f>(AC106/AB106)-1</f>
+        <v>3.7859266600594577E-2</v>
+      </c>
+      <c r="AD104" s="69">
+        <f>(AD106/AC106)-1</f>
+        <v>5.3857906799083199E-2</v>
+      </c>
+      <c r="AE104" s="69">
+        <f>(AE106/AD106)-1</f>
+        <v>0.11235955056179781</v>
+      </c>
+      <c r="AF104" s="69">
+        <f>(AF106/AE106)-1</f>
+        <v>8.6999022482893373E-2</v>
+      </c>
+      <c r="AG104" s="69">
+        <f>SUM(AB104:AF104)/5</f>
+        <v>0.2597607517224898</v>
+      </c>
+      <c r="AH104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AI104" s="70"/>
+      <c r="AI104" s="68"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12513,35 +12563,35 @@
         <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
         <v>2512790561.9805889</v>
       </c>
-      <c r="AB105" s="29">
+      <c r="AB105" s="27">
         <f>AA105*(1+$AI$106)</f>
         <v>2635572133.7917175</v>
       </c>
-      <c r="AC105" s="29">
+      <c r="AC105" s="27">
         <f t="shared" ref="AC105:AF105" si="32">AB105*(1+$AI$106)</f>
         <v>2764353136.9141965</v>
       </c>
-      <c r="AD105" s="29">
+      <c r="AD105" s="27">
         <f t="shared" si="32"/>
         <v>2899426719.3793521</v>
       </c>
-      <c r="AE105" s="29">
+      <c r="AE105" s="27">
         <f t="shared" si="32"/>
         <v>3041100353.2042036</v>
       </c>
-      <c r="AF105" s="29">
+      <c r="AF105" s="27">
         <f t="shared" si="32"/>
         <v>3189696534.2991705</v>
       </c>
-      <c r="AG105" s="30" t="s">
+      <c r="AG105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AH105" s="41" t="s">
+      <c r="AH105" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="AI105" s="42">
+      <c r="AI105" s="40">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>5.1278632672012492E-2</v>
+        <v>5.072596132585834E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12649,34 +12699,34 @@
         <f t="shared" si="33"/>
         <v>-0.47066682156133832</v>
       </c>
-      <c r="AB106" s="56">
+      <c r="AB106" s="54">
         <v>5045000000</v>
       </c>
-      <c r="AC106" s="56">
+      <c r="AC106" s="54">
         <v>5236000000</v>
       </c>
-      <c r="AD106" s="56">
+      <c r="AD106" s="54">
         <v>5518000000</v>
       </c>
-      <c r="AE106" s="56">
+      <c r="AE106" s="54">
         <v>6138000000</v>
       </c>
-      <c r="AF106" s="56">
+      <c r="AF106" s="54">
         <v>6672000000</v>
       </c>
-      <c r="AG106" s="30" t="s">
+      <c r="AG106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AH106" s="43" t="s">
+      <c r="AH106" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="AI106" s="44">
+      <c r="AI106" s="42">
         <f>(SUM(AB4:AF4)/5)</f>
         <v>4.8862636492216047E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="52" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -12757,139 +12807,139 @@
       <c r="AA107" s="1">
         <v>1822600000</v>
       </c>
-      <c r="AB107" s="30"/>
-      <c r="AC107" s="30"/>
-      <c r="AD107" s="30"/>
-      <c r="AE107" s="30"/>
-      <c r="AF107" s="66">
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="64">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>217574728133.47675</v>
-      </c>
-      <c r="AG107" s="31" t="s">
+        <v>221488269409.25299</v>
+      </c>
+      <c r="AG107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AH107" s="45" t="s">
+      <c r="AH107" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AI107" s="46">
+      <c r="AI107" s="44">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="66">
+      <c r="AB108" s="64">
         <f t="shared" ref="AB108:AD108" si="34">AB107+AB106</f>
         <v>5045000000</v>
       </c>
-      <c r="AC108" s="66">
+      <c r="AC108" s="64">
         <f t="shared" si="34"/>
         <v>5236000000</v>
       </c>
-      <c r="AD108" s="66">
+      <c r="AD108" s="64">
         <f t="shared" si="34"/>
         <v>5518000000</v>
       </c>
-      <c r="AE108" s="66">
+      <c r="AE108" s="64">
         <f>AE107+AE106</f>
         <v>6138000000</v>
       </c>
-      <c r="AF108" s="66">
+      <c r="AF108" s="64">
         <f>AF107+AF106</f>
-        <v>224246728133.47675</v>
-      </c>
-      <c r="AG108" s="31" t="s">
+        <v>228160269409.25299</v>
+      </c>
+      <c r="AG108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AH108" s="47" t="s">
+      <c r="AH108" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AI108" s="44">
+      <c r="AI108" s="42">
         <f>AI105</f>
-        <v>5.1278632672012492E-2</v>
+        <v>5.072596132585834E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="67" t="s">
+      <c r="AB109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AC109" s="67"/>
+      <c r="AC109" s="65"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="48" t="s">
+      <c r="AB110" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="AC110" s="39">
+      <c r="AC110" s="37">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>193948356305.60294</v>
+        <v>197489499465.70148</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="48" t="s">
+      <c r="AB111" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="AC111" s="39">
+      <c r="AC111" s="37">
         <f>AA40</f>
         <v>2028400000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="48" t="s">
+      <c r="AB112" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AC112" s="39">
+      <c r="AC112" s="37">
         <f>AI99</f>
         <v>47051000000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="48" t="s">
+      <c r="AB113" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="AC113" s="39">
+      <c r="AC113" s="37">
         <f>AC110+AC111-AC112</f>
-        <v>148925756305.60294</v>
+        <v>152466899465.70148</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="48" t="s">
+      <c r="AB114" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AC114" s="48">
+      <c r="AC114" s="46">
         <f>AA34*(1+(5*AG16))</f>
         <v>495381163.50886112</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="49" t="s">
+      <c r="AB115" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="AC115" s="50">
+      <c r="AC115" s="48">
         <f>AC113/AC114</f>
-        <v>300.62862150578928</v>
+        <v>307.77694167003631</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="48" t="s">
+      <c r="AB116" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="AC116" s="51" cm="1">
+      <c r="AC116" s="49" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>195.55</v>
+        <v>186.94</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="49" t="s">
+      <c r="AB117" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AC117" s="52">
+      <c r="AC117" s="50">
         <f>AC115/AC116-1</f>
-        <v>0.53734912557294434</v>
+        <v>0.64639425307604736</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="49" t="s">
+      <c r="AB118" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AC118" s="53" t="str">
+      <c r="AC118" s="51" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
